--- a/SmarCity_System_Data.xlsx
+++ b/SmarCity_System_Data.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabor\ownCloud\Documents\University\IFB299\Project\Portfolio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabor\ownCloud\Documents\University\IFB299\Project\Portfolio\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16860" windowHeight="0" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16860" windowHeight="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Colleges" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="359">
   <si>
     <t>Address</t>
   </si>
@@ -491,13 +491,631 @@
   </si>
   <si>
     <t>1300 663 477</t>
+  </si>
+  <si>
+    <t>info@georgeseaglestreet.com.au</t>
+  </si>
+  <si>
+    <t>07 32118111</t>
+  </si>
+  <si>
+    <t>1/10 Eagle St, Brisbane City QLD 4000</t>
+  </si>
+  <si>
+    <t>George's Paragon Seafood Restaurant Brisbane</t>
+  </si>
+  <si>
+    <t>Riverbar &amp; Kitchen</t>
+  </si>
+  <si>
+    <t>71 Eagle St, Brisbane City QLD 4000</t>
+  </si>
+  <si>
+    <t>07 32119020</t>
+  </si>
+  <si>
+    <t>mail@riverbarandkitchen.com.au</t>
+  </si>
+  <si>
+    <t>Hanwoori Restaurant</t>
+  </si>
+  <si>
+    <t>07 32115710</t>
+  </si>
+  <si>
+    <t>info@hanwoori.com.au</t>
+  </si>
+  <si>
+    <t>07 32200462</t>
+  </si>
+  <si>
+    <t>hello@red-hook.com.au</t>
+  </si>
+  <si>
+    <t>3/88 Creek St, Brisbane City QLD 4000</t>
+  </si>
+  <si>
+    <t>Red Hook</t>
+  </si>
+  <si>
+    <t>reservations@jellyfishrestaurant.com.au</t>
+  </si>
+  <si>
+    <t>Jellyfish Restaurant</t>
+  </si>
+  <si>
+    <t>07 32202202</t>
+  </si>
+  <si>
+    <t>123 Eagle St, Brisbane City QLD 4000</t>
+  </si>
+  <si>
+    <t>enquiries@maltdining.com.au</t>
+  </si>
+  <si>
+    <t>07 32364855</t>
+  </si>
+  <si>
+    <t>Malt Dining</t>
+  </si>
+  <si>
+    <t>28 Market St, Brisbane City QLD 4000</t>
+  </si>
+  <si>
+    <t>mail@eccobistro.com</t>
+  </si>
+  <si>
+    <t>07 38318344</t>
+  </si>
+  <si>
+    <t>100 Boundary St, Brisbane City QLD 4000</t>
+  </si>
+  <si>
+    <t>e'cco bistro</t>
+  </si>
+  <si>
+    <t>will.cooke@vapiano.com.au</t>
+  </si>
+  <si>
+    <t>Vapiano - Brisbane</t>
+  </si>
+  <si>
+    <t>191 Albert St, Brisbane City QLD 4000</t>
+  </si>
+  <si>
+    <t>07 32214933</t>
+  </si>
+  <si>
+    <t>functions@misskays.com.au</t>
+  </si>
+  <si>
+    <t>Miss Kay's</t>
+  </si>
+  <si>
+    <t>185 George St, Brisbane City QLD 4000</t>
+  </si>
+  <si>
+    <t>07 32111300</t>
+  </si>
+  <si>
+    <t>Alchemy Restaurant &amp; Bar</t>
+  </si>
+  <si>
+    <t>mail@alchemyrestaurant.com.au</t>
+  </si>
+  <si>
+    <t>07 32293175</t>
+  </si>
+  <si>
+    <t>175 Eagle St, Brisbane City QLD 4000</t>
+  </si>
+  <si>
+    <t>IL Centro Restaurant</t>
+  </si>
+  <si>
+    <t>admin@il-centro.com.au</t>
+  </si>
+  <si>
+    <t>Eagle Street Pier, 6/1 Eagle St, Brisbane City QLD 4000</t>
+  </si>
+  <si>
+    <t>07 32216090</t>
+  </si>
+  <si>
+    <t>info@spaghettihouse.com.au</t>
+  </si>
+  <si>
+    <t>The Spaghetti House Trattoria</t>
+  </si>
+  <si>
+    <t>Little Stanley St &amp; Grey Street, South Brisbane QLD 4101</t>
+  </si>
+  <si>
+    <t>07 38444844</t>
+  </si>
+  <si>
+    <t>POPOLO Southbank</t>
+  </si>
+  <si>
+    <t>River Quay R3, Sidon St, Brisbane City QLD 4101</t>
+  </si>
+  <si>
+    <t>07 38467784</t>
+  </si>
+  <si>
+    <t>info@popolodining.com</t>
+  </si>
+  <si>
+    <t>hillcrest@centralgroup.com.au</t>
+  </si>
+  <si>
+    <t>Hillcrest Apartment Hotel</t>
+  </si>
+  <si>
+    <t>311 Vulture St, South Brisbane QLD 4101</t>
+  </si>
+  <si>
+    <t>07 38463000</t>
+  </si>
+  <si>
+    <t>info@brisbane.qld.gov.au</t>
+  </si>
+  <si>
+    <t>461 Main St, Kangaroo Point QLD 4169</t>
+  </si>
+  <si>
+    <t>Kangaroo Point Cliffs Park</t>
+  </si>
+  <si>
+    <t>Powerhouse Park</t>
+  </si>
+  <si>
+    <t>info@brisbanepowerhouse.org</t>
+  </si>
+  <si>
+    <t>119 Lamington Street, New Farm, QLD 4005</t>
+  </si>
+  <si>
+    <t>07 33588600</t>
+  </si>
+  <si>
+    <t>2 George St, Brisbane City QLD 4000</t>
+  </si>
+  <si>
+    <t>Business, Economics &amp; Law, Engineering; Architecture &amp; Information Technology; Health and Behavioural Sciences; Humanities and Social Sciences; Medicine; Science</t>
+  </si>
+  <si>
+    <t>admissions@uq.edu.au</t>
+  </si>
+  <si>
+    <t>UQ</t>
+  </si>
+  <si>
+    <t>QUT</t>
+  </si>
+  <si>
+    <t>St Lucia QLD 4072</t>
+  </si>
+  <si>
+    <t>Accounting, Finance and Economics; Employment Relations and Human Resources; School of Government and International Relations; International Business and Asian Studies; Marketing; Tourism, Sport and Hotel Management</t>
+  </si>
+  <si>
+    <t>QUT Business School; Creative Industries; Education; Health; Law; Science and Engineering</t>
+  </si>
+  <si>
+    <t>askqut@qut.edu.au</t>
+  </si>
+  <si>
+    <t>international@griffith.edu.au</t>
+  </si>
+  <si>
+    <t>Griffith University</t>
+  </si>
+  <si>
+    <t>170 Kessels Road, NATHAN QLD 4111</t>
+  </si>
+  <si>
+    <t>Shafston College</t>
+  </si>
+  <si>
+    <t>46 Thorn St, Kangaroo Point QLD 4000</t>
+  </si>
+  <si>
+    <t>English; Business; Child Care and Early Education; Hospitality</t>
+  </si>
+  <si>
+    <t>info@shafston.edu</t>
+  </si>
+  <si>
+    <t>1100 Nudgee Rd, Banyo QLD 4014</t>
+  </si>
+  <si>
+    <t>ACU Brisbane</t>
+  </si>
+  <si>
+    <t>Faculty of Law and Business; Faculty of Education and Arts; Faculty of Health Sciences; Faculty of Theology and Philosophy</t>
+  </si>
+  <si>
+    <t>askacu@acu.edu.au</t>
+  </si>
+  <si>
+    <t>TAFE Brisbane</t>
+  </si>
+  <si>
+    <t>brisbane@tafe.qld.edu.au</t>
+  </si>
+  <si>
+    <t>66 Ernest Street, South Brisbane Qld 4101</t>
+  </si>
+  <si>
+    <t>Hospitality; Sports and Recreation; Business; Community Services; Children Services; Nursing; School Alternatives; Fashion; Acting, Screen and Media; Horticulture and floristry; Visual Arts and Photography</t>
+  </si>
+  <si>
+    <t>Brisbane College</t>
+  </si>
+  <si>
+    <t>study@bc.edu.au</t>
+  </si>
+  <si>
+    <t>160 Edward Street, Brisbane QLD 4000 Australia</t>
+  </si>
+  <si>
+    <t>Business; Accounting; Community Services; Early Childhood Education and Care; TESOL; Hospitality</t>
+  </si>
+  <si>
+    <t>enquire@jcub.edu.au</t>
+  </si>
+  <si>
+    <t>James Cook University Brisbane</t>
+  </si>
+  <si>
+    <t>349 Queen Street, Brisbane QLD 4000</t>
+  </si>
+  <si>
+    <t>Business; Accounting; Hospitality; Information Technology</t>
+  </si>
+  <si>
+    <t>160 Ann Street, Brisbane QLD 4000</t>
+  </si>
+  <si>
+    <t>CQU Brisbane</t>
+  </si>
+  <si>
+    <t>fsdenquiries@cqu.edu.au</t>
+  </si>
+  <si>
+    <t>Business; Creative Arts; Education and Humanities; Engineering; Health; Information Technology; Psychology; Science and Environment; Service Industries; Transport</t>
+  </si>
+  <si>
+    <t>Business; Management; Hospitality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">admin@americancollege.edu.au </t>
+  </si>
+  <si>
+    <t>American College</t>
+  </si>
+  <si>
+    <t>180 Logan Road, Woolloongabba, QLD 4102</t>
+  </si>
+  <si>
+    <t>Spencer College</t>
+  </si>
+  <si>
+    <t>info@spencercollege.net.au</t>
+  </si>
+  <si>
+    <t>Hospitality; Business</t>
+  </si>
+  <si>
+    <t>5 Hubert Street, Wolloongabba, QLD 4102</t>
+  </si>
+  <si>
+    <t>Level 2, 359 Queen Street, Brisbane QLD 4000</t>
+  </si>
+  <si>
+    <t>Queensford College</t>
+  </si>
+  <si>
+    <t>Business; Aged Care; Child Care; Beauty Therapy; Community Services; Fitness; Hospitality; Management; Social Media Marketing</t>
+  </si>
+  <si>
+    <t>Viva College</t>
+  </si>
+  <si>
+    <t>Business; Tourism; Management</t>
+  </si>
+  <si>
+    <t>info@queensford.edu.au</t>
+  </si>
+  <si>
+    <t>info@vivacollege.com</t>
+  </si>
+  <si>
+    <t>90-112 Queen Street Mall, Brisbane, QLD, 4000</t>
+  </si>
+  <si>
+    <t>Brisbane Square Library</t>
+  </si>
+  <si>
+    <t>Brisbane Square, 266 George St, Brisbane City QLD 4000</t>
+  </si>
+  <si>
+    <t>07 34034166</t>
+  </si>
+  <si>
+    <t>178-180 Boundary St, West End 4101</t>
+  </si>
+  <si>
+    <t>West End Library</t>
+  </si>
+  <si>
+    <t>07 34038620</t>
+  </si>
+  <si>
+    <t>87 Amarina Ave, Ashgrove QLD 4060</t>
+  </si>
+  <si>
+    <t>Ashgrove Library</t>
+  </si>
+  <si>
+    <t>07 34071940</t>
+  </si>
+  <si>
+    <t>New Farm Library</t>
+  </si>
+  <si>
+    <t>135 Sydney St, New Farm 4005</t>
+  </si>
+  <si>
+    <t>07 34031061</t>
+  </si>
+  <si>
+    <t>AskA.Librarian@brisbane.qld.gov.au</t>
+  </si>
+  <si>
+    <t>Toowong Library</t>
+  </si>
+  <si>
+    <t>Toowong Village Shopping Centre, 9 Sherwood Rd, Toowong 4066</t>
+  </si>
+  <si>
+    <t>07 34032590</t>
+  </si>
+  <si>
+    <t>Mt Coot-tha Library</t>
+  </si>
+  <si>
+    <t>Brisbane Botanic Gardens, Mt Coot-tha Rd, Toowong 4066</t>
+  </si>
+  <si>
+    <t>07 34032550</t>
+  </si>
+  <si>
+    <t>Bulimba Library</t>
+  </si>
+  <si>
+    <t>Cnr Riding Rd &amp; Oxford St, Bulimba 4171</t>
+  </si>
+  <si>
+    <t>07 34078223</t>
+  </si>
+  <si>
+    <t>Hamilton Library</t>
+  </si>
+  <si>
+    <t>Cnr Racecourse Rd &amp; Rossiter Pde, Ascot 4007</t>
+  </si>
+  <si>
+    <t>07 34031050</t>
+  </si>
+  <si>
+    <t>Grange Library</t>
+  </si>
+  <si>
+    <t>79 Evelyn St, Grange 4051</t>
+  </si>
+  <si>
+    <t>07 34072523</t>
+  </si>
+  <si>
+    <t>Everton Park Library</t>
+  </si>
+  <si>
+    <t>561 South Pine Road, Everton Park 4053</t>
+  </si>
+  <si>
+    <t>07 34037400</t>
+  </si>
+  <si>
+    <t>Stones Corner Library</t>
+  </si>
+  <si>
+    <t>280 Logan Rd, Stones Corner 4120</t>
+  </si>
+  <si>
+    <t>07 34032170</t>
+  </si>
+  <si>
+    <t>Annerley Library</t>
+  </si>
+  <si>
+    <t>450 Ipswich Rd, Annerley 4103</t>
+  </si>
+  <si>
+    <t>07 34031735</t>
+  </si>
+  <si>
+    <t>Indooroopilly Library</t>
+  </si>
+  <si>
+    <t>Indooroopilly Shopping Centre, Level 4, 322 Moggill Rd, Indooroopilly 4068</t>
+  </si>
+  <si>
+    <t>07 34070009</t>
+  </si>
+  <si>
+    <t>Lone Pine Koala Sanctuary</t>
+  </si>
+  <si>
+    <t>708 Jesmond Rd, Fig Tree Pocket QLD 4069</t>
+  </si>
+  <si>
+    <t>07 33781366</t>
+  </si>
+  <si>
+    <t>service@koala.net</t>
+  </si>
+  <si>
+    <t>Daisy Hill Koala Centre</t>
+  </si>
+  <si>
+    <t>Regional Park, 253 Daisy Hill Rd, Daisy Hill QLD 4127</t>
+  </si>
+  <si>
+    <t>07 32991032</t>
+  </si>
+  <si>
+    <t>koala.centre@ehp.qld.gov.au</t>
+  </si>
+  <si>
+    <t>Walkabout Creek Discovery Centre</t>
+  </si>
+  <si>
+    <t>60 Mount Nebo Rd, The Gap QLD 4061</t>
+  </si>
+  <si>
+    <t>07 31643600</t>
+  </si>
+  <si>
+    <t>info@npsr.qld.gov.au</t>
+  </si>
+  <si>
+    <t>Ipswich Nature Centre</t>
+  </si>
+  <si>
+    <t>Queens Park, Goleby Ave, Ipswich QLD 4305</t>
+  </si>
+  <si>
+    <t>07 38106666</t>
+  </si>
+  <si>
+    <t>council@ipswich.qld.gov.au</t>
+  </si>
+  <si>
+    <t>O'Reilly's Rainforest Retreat</t>
+  </si>
+  <si>
+    <t>3582, Lamington National Park Rd, Canungra QLD 4275</t>
+  </si>
+  <si>
+    <t>1800 688 722</t>
+  </si>
+  <si>
+    <t>info@oreillys.com.au</t>
+  </si>
+  <si>
+    <t>Australia Zoo</t>
+  </si>
+  <si>
+    <t>1638 Steve Irwin Way, Beerwah QLD 4519</t>
+  </si>
+  <si>
+    <t>07 54362000</t>
+  </si>
+  <si>
+    <t>enquiries@australiazoo.com.au</t>
+  </si>
+  <si>
+    <t>Brisbane Valley Ostrich &amp; Fish Farm</t>
+  </si>
+  <si>
+    <t>3695 Gatton Esk Rd, Esk QLD 4312</t>
+  </si>
+  <si>
+    <t>07 54241146</t>
+  </si>
+  <si>
+    <t>brisvallost@bigpond.com</t>
+  </si>
+  <si>
+    <t>ottaba10@gmail.com</t>
+  </si>
+  <si>
+    <t>Ottaba Llamas</t>
+  </si>
+  <si>
+    <t>6410 Brisbane Valley Highway, Ottaba QLD 4313</t>
+  </si>
+  <si>
+    <t>04 07165100</t>
+  </si>
+  <si>
+    <t>info@emuheaven.com.au</t>
+  </si>
+  <si>
+    <t>Emu Heaven</t>
+  </si>
+  <si>
+    <t>2484 Warrego Hwy, Marburg QLD 4346</t>
+  </si>
+  <si>
+    <t>07 54644667</t>
+  </si>
+  <si>
+    <t>kigsley@yahoo.com</t>
+  </si>
+  <si>
+    <t>Lyell Deer Sanctuary</t>
+  </si>
+  <si>
+    <t>6 Lyell Court, Mt Samson Qld 4520</t>
+  </si>
+  <si>
+    <t>04 11485156</t>
+  </si>
+  <si>
+    <t>info@whiteridgefarm.com.au</t>
+  </si>
+  <si>
+    <t>White Ridge Farm</t>
+  </si>
+  <si>
+    <t>04 17774559</t>
+  </si>
+  <si>
+    <t>130 Hamilton Rd, Elimbah QLD 4516</t>
+  </si>
+  <si>
+    <t>Sea World</t>
+  </si>
+  <si>
+    <t>Seaworld Dr, Main Beach QLD 4217</t>
+  </si>
+  <si>
+    <t>07 55882222</t>
+  </si>
+  <si>
+    <t>info@seaworld.com.au</t>
+  </si>
+  <si>
+    <t>Currumbin Wildlife Sanctuary</t>
+  </si>
+  <si>
+    <t>28 Tomewin St, Currumbin QLD 4223</t>
+  </si>
+  <si>
+    <t>07 55341266</t>
+  </si>
+  <si>
+    <t>ENQUIRIES@CWS.ORG.AU</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -512,6 +1130,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -535,12 +1159,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -822,338 +1447,253 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.53125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="206.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
         <v>5</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.53125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.53125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="2" max="2" width="37.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.9296875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B1" t="s">
-        <v>8</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>105</v>
+        <v>218</v>
       </c>
       <c r="C2" t="s">
-        <v>106</v>
+        <v>220</v>
       </c>
       <c r="D2" t="s">
-        <v>107</v>
+        <v>216</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>109</v>
+        <v>219</v>
       </c>
       <c r="C3" t="s">
-        <v>110</v>
+        <v>215</v>
       </c>
       <c r="D3" t="s">
-        <v>111</v>
+        <v>222</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>113</v>
+        <v>225</v>
       </c>
       <c r="C4" t="s">
-        <v>114</v>
+        <v>226</v>
       </c>
       <c r="D4" t="s">
-        <v>115</v>
+        <v>221</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>117</v>
+        <v>227</v>
       </c>
       <c r="C5" t="s">
-        <v>118</v>
+        <v>228</v>
       </c>
       <c r="D5" t="s">
-        <v>119</v>
+        <v>229</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>121</v>
+        <v>232</v>
       </c>
       <c r="C6" t="s">
-        <v>122</v>
+        <v>231</v>
       </c>
       <c r="D6" t="s">
-        <v>123</v>
+        <v>233</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>125</v>
+        <v>235</v>
       </c>
       <c r="C7" t="s">
-        <v>126</v>
+        <v>237</v>
       </c>
       <c r="D7" t="s">
-        <v>127</v>
+        <v>238</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>129</v>
+        <v>239</v>
       </c>
       <c r="C8" t="s">
-        <v>130</v>
+        <v>241</v>
       </c>
       <c r="D8" t="s">
-        <v>131</v>
+        <v>242</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>133</v>
+        <v>244</v>
       </c>
       <c r="C9" t="s">
-        <v>134</v>
+        <v>245</v>
       </c>
       <c r="D9" t="s">
-        <v>135</v>
+        <v>246</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>137</v>
+        <v>248</v>
       </c>
       <c r="C10" t="s">
-        <v>138</v>
+        <v>247</v>
       </c>
       <c r="D10" t="s">
-        <v>139</v>
+        <v>250</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>141</v>
-      </c>
-      <c r="C11" t="s">
-        <v>143</v>
+        <v>253</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>254</v>
       </c>
       <c r="D11" t="s">
-        <v>144</v>
+        <v>251</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>145</v>
-      </c>
-      <c r="C12" t="s">
-        <v>147</v>
+        <v>255</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>258</v>
       </c>
       <c r="D12" t="s">
-        <v>148</v>
+        <v>257</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>149</v>
+        <v>260</v>
       </c>
       <c r="C13" t="s">
-        <v>151</v>
+        <v>259</v>
       </c>
       <c r="D13" t="s">
-        <v>152</v>
+        <v>261</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>150</v>
+        <v>264</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>262</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="D14" t="s">
+        <v>263</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>265</v>
       </c>
     </row>
   </sheetData>
@@ -1170,6 +1710,573 @@
     <hyperlink ref="E11" r:id="rId10"/>
     <hyperlink ref="E12" r:id="rId11"/>
     <hyperlink ref="E13" r:id="rId12"/>
+    <hyperlink ref="E14" r:id="rId13"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="68.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D2" t="s">
+        <v>269</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>271</v>
+      </c>
+      <c r="C3" t="s">
+        <v>270</v>
+      </c>
+      <c r="D3" t="s">
+        <v>272</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>274</v>
+      </c>
+      <c r="C4" t="s">
+        <v>273</v>
+      </c>
+      <c r="D4" t="s">
+        <v>275</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>276</v>
+      </c>
+      <c r="C5" t="s">
+        <v>277</v>
+      </c>
+      <c r="D5" t="s">
+        <v>278</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>280</v>
+      </c>
+      <c r="C6" t="s">
+        <v>281</v>
+      </c>
+      <c r="D6" t="s">
+        <v>282</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>283</v>
+      </c>
+      <c r="C7" t="s">
+        <v>284</v>
+      </c>
+      <c r="D7" t="s">
+        <v>285</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C8" t="s">
+        <v>287</v>
+      </c>
+      <c r="D8" t="s">
+        <v>288</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>289</v>
+      </c>
+      <c r="C9" t="s">
+        <v>290</v>
+      </c>
+      <c r="D9" t="s">
+        <v>291</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>292</v>
+      </c>
+      <c r="C10" t="s">
+        <v>293</v>
+      </c>
+      <c r="D10" t="s">
+        <v>294</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>295</v>
+      </c>
+      <c r="C11" t="s">
+        <v>296</v>
+      </c>
+      <c r="D11" t="s">
+        <v>297</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>298</v>
+      </c>
+      <c r="C12" t="s">
+        <v>299</v>
+      </c>
+      <c r="D12" t="s">
+        <v>300</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>301</v>
+      </c>
+      <c r="C13" t="s">
+        <v>302</v>
+      </c>
+      <c r="D13" t="s">
+        <v>303</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="C14" t="s">
+        <v>305</v>
+      </c>
+      <c r="D14" t="s">
+        <v>306</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="E3:E14" r:id="rId2" display="AskA.Librarian@brisbane.qld.gov.au"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="37.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D6" t="s">
+        <v>123</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>125</v>
+      </c>
+      <c r="C7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>129</v>
+      </c>
+      <c r="C8" t="s">
+        <v>130</v>
+      </c>
+      <c r="D8" t="s">
+        <v>131</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>133</v>
+      </c>
+      <c r="C9" t="s">
+        <v>134</v>
+      </c>
+      <c r="D9" t="s">
+        <v>135</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>137</v>
+      </c>
+      <c r="C10" t="s">
+        <v>138</v>
+      </c>
+      <c r="D10" t="s">
+        <v>139</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>141</v>
+      </c>
+      <c r="C11" t="s">
+        <v>143</v>
+      </c>
+      <c r="D11" t="s">
+        <v>144</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>145</v>
+      </c>
+      <c r="C12" t="s">
+        <v>147</v>
+      </c>
+      <c r="D12" t="s">
+        <v>148</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>149</v>
+      </c>
+      <c r="C13" t="s">
+        <v>151</v>
+      </c>
+      <c r="D13" t="s">
+        <v>152</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>205</v>
+      </c>
+      <c r="C14" t="s">
+        <v>206</v>
+      </c>
+      <c r="D14" t="s">
+        <v>207</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="E3" r:id="rId2"/>
+    <hyperlink ref="E4" r:id="rId3"/>
+    <hyperlink ref="E5" r:id="rId4"/>
+    <hyperlink ref="E6" r:id="rId5"/>
+    <hyperlink ref="E7" r:id="rId6"/>
+    <hyperlink ref="E8" r:id="rId7"/>
+    <hyperlink ref="E9" r:id="rId8"/>
+    <hyperlink ref="E10" r:id="rId9"/>
+    <hyperlink ref="E11" r:id="rId10"/>
+    <hyperlink ref="E12" r:id="rId11"/>
+    <hyperlink ref="E13" r:id="rId12"/>
+    <hyperlink ref="E14" r:id="rId13"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1177,21 +2284,21 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A12"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="24.06640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.3984375" customWidth="1"/>
-    <col min="4" max="4" width="12.265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.1328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>9</v>
       </c>
@@ -1205,7 +2312,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1222,7 +2329,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1239,7 +2346,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1256,7 +2363,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1273,7 +2380,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1290,7 +2397,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1307,7 +2414,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1324,7 +2431,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1341,7 +2448,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1358,7 +2465,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1375,7 +2482,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1390,6 +2497,40 @@
       </c>
       <c r="E12" s="1" t="s">
         <v>104</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>210</v>
+      </c>
+      <c r="C13" t="s">
+        <v>209</v>
+      </c>
+      <c r="D13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>211</v>
+      </c>
+      <c r="C14" t="s">
+        <v>213</v>
+      </c>
+      <c r="D14" t="s">
+        <v>214</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -1405,6 +2546,8 @@
     <hyperlink ref="E10" r:id="rId9"/>
     <hyperlink ref="E11" r:id="rId10"/>
     <hyperlink ref="E12" r:id="rId11"/>
+    <hyperlink ref="E13" r:id="rId12"/>
+    <hyperlink ref="E14" r:id="rId13"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1412,33 +2555,271 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="12.265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.53125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>307</v>
+      </c>
+      <c r="C2" t="s">
+        <v>308</v>
+      </c>
+      <c r="D2" t="s">
+        <v>309</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>311</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="D3" t="s">
+        <v>313</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>315</v>
+      </c>
+      <c r="C4" t="s">
+        <v>316</v>
+      </c>
+      <c r="D4" t="s">
+        <v>317</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>319</v>
+      </c>
+      <c r="C5" t="s">
+        <v>320</v>
+      </c>
+      <c r="D5" t="s">
+        <v>321</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>323</v>
+      </c>
+      <c r="C6" t="s">
+        <v>324</v>
+      </c>
+      <c r="D6" t="s">
+        <v>325</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>327</v>
+      </c>
+      <c r="C7" t="s">
+        <v>328</v>
+      </c>
+      <c r="D7" t="s">
+        <v>329</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>331</v>
+      </c>
+      <c r="C8" t="s">
+        <v>332</v>
+      </c>
+      <c r="D8" t="s">
+        <v>333</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>336</v>
+      </c>
+      <c r="C9" t="s">
+        <v>337</v>
+      </c>
+      <c r="D9" t="s">
+        <v>338</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>340</v>
+      </c>
+      <c r="C10" t="s">
+        <v>341</v>
+      </c>
+      <c r="D10" t="s">
+        <v>342</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>344</v>
+      </c>
+      <c r="C11" t="s">
+        <v>345</v>
+      </c>
+      <c r="D11" t="s">
+        <v>346</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>348</v>
+      </c>
+      <c r="C12" t="s">
+        <v>350</v>
+      </c>
+      <c r="D12" t="s">
+        <v>349</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>351</v>
+      </c>
+      <c r="C13" t="s">
+        <v>352</v>
+      </c>
+      <c r="D13" t="s">
+        <v>353</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>355</v>
+      </c>
+      <c r="C14" t="s">
+        <v>356</v>
+      </c>
+      <c r="D14" t="s">
+        <v>357</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>358</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="E3" r:id="rId2"/>
+    <hyperlink ref="E4" r:id="rId3"/>
+    <hyperlink ref="E5" r:id="rId4"/>
+    <hyperlink ref="E6" r:id="rId5"/>
+    <hyperlink ref="E7" r:id="rId6"/>
+    <hyperlink ref="E8" r:id="rId7"/>
+    <hyperlink ref="E9" r:id="rId8"/>
+    <hyperlink ref="E10" r:id="rId9"/>
+    <hyperlink ref="E11" r:id="rId10"/>
+    <hyperlink ref="E12" r:id="rId11"/>
+    <hyperlink ref="E13" r:id="rId12"/>
+    <hyperlink ref="E14" r:id="rId13"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1447,18 +2828,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.46484375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.53125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -1479,35 +2860,273 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A2" sqref="A2:A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.53125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D3" t="s">
+        <v>159</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D4" t="s">
+        <v>162</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C5" t="s">
+        <v>166</v>
+      </c>
+      <c r="D5" t="s">
+        <v>164</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>169</v>
+      </c>
+      <c r="C6" t="s">
+        <v>171</v>
+      </c>
+      <c r="D6" t="s">
+        <v>170</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>174</v>
+      </c>
+      <c r="C7" t="s">
+        <v>175</v>
+      </c>
+      <c r="D7" t="s">
+        <v>173</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>179</v>
+      </c>
+      <c r="C8" t="s">
+        <v>178</v>
+      </c>
+      <c r="D8" t="s">
+        <v>177</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>181</v>
+      </c>
+      <c r="C9" t="s">
+        <v>182</v>
+      </c>
+      <c r="D9" t="s">
+        <v>183</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>185</v>
+      </c>
+      <c r="C10" t="s">
+        <v>186</v>
+      </c>
+      <c r="D10" t="s">
+        <v>187</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>188</v>
+      </c>
+      <c r="C11" t="s">
+        <v>191</v>
+      </c>
+      <c r="D11" t="s">
+        <v>190</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>192</v>
+      </c>
+      <c r="C12" t="s">
+        <v>194</v>
+      </c>
+      <c r="D12" t="s">
+        <v>195</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>197</v>
+      </c>
+      <c r="C13" t="s">
+        <v>198</v>
+      </c>
+      <c r="D13" t="s">
+        <v>199</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>200</v>
+      </c>
+      <c r="C14" t="s">
+        <v>201</v>
+      </c>
+      <c r="D14" t="s">
+        <v>202</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="E3" r:id="rId2"/>
+    <hyperlink ref="E4" r:id="rId3"/>
+    <hyperlink ref="E5" r:id="rId4"/>
+    <hyperlink ref="E6" r:id="rId5"/>
+    <hyperlink ref="E7" r:id="rId6"/>
+    <hyperlink ref="E8" r:id="rId7"/>
+    <hyperlink ref="E9" r:id="rId8"/>
+    <hyperlink ref="E10" r:id="rId9"/>
+    <hyperlink ref="E11" r:id="rId10"/>
+    <hyperlink ref="E12" r:id="rId11"/>
+    <hyperlink ref="E13" r:id="rId12"/>
+    <hyperlink ref="E14" r:id="rId13"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId14"/>
 </worksheet>
 </file>
 
@@ -1515,19 +3134,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="24.73046875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="45.06640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>12</v>
       </c>
@@ -1541,7 +3160,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1558,7 +3177,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1575,7 +3194,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1592,7 +3211,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1609,7 +3228,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1626,7 +3245,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1643,7 +3262,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1660,7 +3279,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1677,7 +3296,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1694,7 +3313,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1711,7 +3330,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1728,7 +3347,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1745,7 +3364,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>

--- a/SmarCity_System_Data.xlsx
+++ b/SmarCity_System_Data.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabor\ownCloud\Documents\University\IFB299\Project\Portfolio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabor\ownCloud\Documents\University\IFB299\Project\Portfolio\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16860" windowHeight="0" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16860" windowHeight="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Colleges" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="460">
   <si>
     <t>Address</t>
   </si>
@@ -1109,6 +1109,309 @@
   </si>
   <si>
     <t>ENQUIRIES@CWS.ORG.AU</t>
+  </si>
+  <si>
+    <t>Queensland Museum &amp; Science Centre</t>
+  </si>
+  <si>
+    <t>Grey St &amp; Melbourne St, South Brisbane QLD 4101</t>
+  </si>
+  <si>
+    <t>07 38407555</t>
+  </si>
+  <si>
+    <t>qmshop@qm.qld.gov.au</t>
+  </si>
+  <si>
+    <t>GOMA Gallery Of Modern Art</t>
+  </si>
+  <si>
+    <t>Stanley Pl, South Brisbane QLD 4101</t>
+  </si>
+  <si>
+    <t>07 38407303</t>
+  </si>
+  <si>
+    <t>gallery@qagoma.qld.gov.au</t>
+  </si>
+  <si>
+    <t>Museum of Brisbane</t>
+  </si>
+  <si>
+    <t>City Hall, 64 Adelaide St, Brisbane City QLD 4000</t>
+  </si>
+  <si>
+    <t>07 33390800</t>
+  </si>
+  <si>
+    <t>info@museumofbrisbane.com.au</t>
+  </si>
+  <si>
+    <t>QUT Art Museum</t>
+  </si>
+  <si>
+    <t>07 31385370</t>
+  </si>
+  <si>
+    <t>artmuseum@qut.edu.au</t>
+  </si>
+  <si>
+    <t>Queensland Maritime Museum</t>
+  </si>
+  <si>
+    <t>412 Stanley St, South Brisbane QLD 4101</t>
+  </si>
+  <si>
+    <t>07 38445361</t>
+  </si>
+  <si>
+    <t>info@maritimemuseum.com.au</t>
+  </si>
+  <si>
+    <t>MacArthur Museum Brisbane</t>
+  </si>
+  <si>
+    <t>MacArthur Chambers, 201 Edward St, Brisbane City QLD 4000</t>
+  </si>
+  <si>
+    <t>07 32117052</t>
+  </si>
+  <si>
+    <t>info@mmb.org.au</t>
+  </si>
+  <si>
+    <t>Queensland Police Museum</t>
+  </si>
+  <si>
+    <t>200 Roma St, Brisbane City QLD 4000</t>
+  </si>
+  <si>
+    <t>07 33646432</t>
+  </si>
+  <si>
+    <t>museum@police.qld.gov.au</t>
+  </si>
+  <si>
+    <t>The Commissariat Store Museum</t>
+  </si>
+  <si>
+    <t>115 William St, Brisbane City QLD 4000</t>
+  </si>
+  <si>
+    <t>07 32214198</t>
+  </si>
+  <si>
+    <t>info@commissariatstore.org.au</t>
+  </si>
+  <si>
+    <t>Army Museum South Queensland - Victoria Barracks</t>
+  </si>
+  <si>
+    <t>Victoria Barracks, Petrie Terrace, Brisbane City QLD 4000</t>
+  </si>
+  <si>
+    <t>04 29954663</t>
+  </si>
+  <si>
+    <t>info@armymuseumsouthqueensland.com.au</t>
+  </si>
+  <si>
+    <t>Griffith University Art Museum</t>
+  </si>
+  <si>
+    <t>Queensland College of Art, 226 Grey St, South Brisbane QLD 4101</t>
+  </si>
+  <si>
+    <t>07 37353140</t>
+  </si>
+  <si>
+    <t>artmuseum@griffith.edu.au</t>
+  </si>
+  <si>
+    <t>Old Museum Brisbane</t>
+  </si>
+  <si>
+    <t>1D Bowen Bridge Rd, Bowen Hills QLD 4006</t>
+  </si>
+  <si>
+    <t>oldmuseum@qyo.org.au</t>
+  </si>
+  <si>
+    <t>07 32574089</t>
+  </si>
+  <si>
+    <t>Queensland Military Historical Society Inc</t>
+  </si>
+  <si>
+    <t>28 Church St, Fortitude Valley QLD 4006</t>
+  </si>
+  <si>
+    <t>07 38523565</t>
+  </si>
+  <si>
+    <t>info@qmmm.org.au</t>
+  </si>
+  <si>
+    <t>The University of Queensland Art Museum</t>
+  </si>
+  <si>
+    <t>James and Mary Emelia Mayne Centre Building, University Dr, St Lucia QLD 4072</t>
+  </si>
+  <si>
+    <t>07 33653046</t>
+  </si>
+  <si>
+    <t>artmuseum@uq.edu.au</t>
+  </si>
+  <si>
+    <t>sales@nicetind.com</t>
+  </si>
+  <si>
+    <t>6/135 Wickham Terrace, Brisbane City QLD 4000</t>
+  </si>
+  <si>
+    <t>Nicet Industries</t>
+  </si>
+  <si>
+    <t>Plastic and Moulding</t>
+  </si>
+  <si>
+    <t>Vital Chemical</t>
+  </si>
+  <si>
+    <t>304 Brisbane Terrace, Goodna QLD 4300</t>
+  </si>
+  <si>
+    <t>Chemical</t>
+  </si>
+  <si>
+    <t>admin@vitalindustries.com.au</t>
+  </si>
+  <si>
+    <t>Inglass Pty Ltd</t>
+  </si>
+  <si>
+    <t>Glass preparation</t>
+  </si>
+  <si>
+    <t>Unit 17, 229 Junction Rd, Cannon Hill QLD 4170</t>
+  </si>
+  <si>
+    <t>contact@inglass.net.au</t>
+  </si>
+  <si>
+    <t>Waymar International</t>
+  </si>
+  <si>
+    <t>31 MacBarry Place, Rocklea QLD 4106</t>
+  </si>
+  <si>
+    <t>Wood and forestry</t>
+  </si>
+  <si>
+    <t>sales@timberdepot.com.au</t>
+  </si>
+  <si>
+    <t>B.J. Flanigan Engineering Pty Ltd</t>
+  </si>
+  <si>
+    <t>11 Activity St, Acacia Ridge QLD 4110</t>
+  </si>
+  <si>
+    <t>Steel Fabrication</t>
+  </si>
+  <si>
+    <t>shaun@bjflanigan.com.au</t>
+  </si>
+  <si>
+    <t>Watkins Steel</t>
+  </si>
+  <si>
+    <t>106 Depot St, Banyo QLD 4014</t>
+  </si>
+  <si>
+    <t>admin@watkinssteel.com.au</t>
+  </si>
+  <si>
+    <t>Foremost Plastics Pty Ltd</t>
+  </si>
+  <si>
+    <t>136 Lytton Rd, Bulimba QLD 4171</t>
+  </si>
+  <si>
+    <t>Plastic Fabrication</t>
+  </si>
+  <si>
+    <t>foremost_plastics@bigpond.com</t>
+  </si>
+  <si>
+    <t>PMW Constructions</t>
+  </si>
+  <si>
+    <t>182 Pine Rd, Richlands QLD 4077</t>
+  </si>
+  <si>
+    <t>Civil and Residential Constructions</t>
+  </si>
+  <si>
+    <t>office@pmw.net.au</t>
+  </si>
+  <si>
+    <t>Primo Hans Smallgoods</t>
+  </si>
+  <si>
+    <t>62 Mcroyle St, Wacol QLD 4076</t>
+  </si>
+  <si>
+    <t>Food Product Supplier</t>
+  </si>
+  <si>
+    <t>contact@hans.com.au</t>
+  </si>
+  <si>
+    <t>NOJA Power Switchgear</t>
+  </si>
+  <si>
+    <t>16 Archimedes Pl, Murarrie QLD 4172</t>
+  </si>
+  <si>
+    <t>Medium-voltage switch manufacturer</t>
+  </si>
+  <si>
+    <t>sales@nojapower.com.au</t>
+  </si>
+  <si>
+    <t>Ingham's</t>
+  </si>
+  <si>
+    <t>50 Goodman Pl, Murarrie QLD 4172</t>
+  </si>
+  <si>
+    <t>Meat Wholesaler</t>
+  </si>
+  <si>
+    <t>marketing@inghams.com.au</t>
+  </si>
+  <si>
+    <t>Sikorsky Helitech</t>
+  </si>
+  <si>
+    <t>777 MacArthur Ave Central, Pinkenba QLD 4008</t>
+  </si>
+  <si>
+    <t>Aircraft Maintenance</t>
+  </si>
+  <si>
+    <t>sikorskyhelitech@sikorsky.com.au</t>
+  </si>
+  <si>
+    <t>sales@scottmetals.com.au</t>
+  </si>
+  <si>
+    <t>Scott Metals</t>
+  </si>
+  <si>
+    <t>14 Wellington Rd, Woolloongabba QLD 4102</t>
   </si>
 </sst>
 </file>
@@ -1453,15 +1756,15 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="206.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="206.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.86328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
         <v>5</v>
       </c>
@@ -1475,7 +1778,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1492,7 +1795,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1509,7 +1812,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1526,7 +1829,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1543,7 +1846,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1560,7 +1863,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1577,7 +1880,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1594,7 +1897,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1611,7 +1914,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1628,7 +1931,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1645,7 +1948,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1662,7 +1965,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1679,7 +1982,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1724,15 +2027,15 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="68.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.1328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="68.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.265625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="34" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
         <v>6</v>
       </c>
@@ -1746,7 +2049,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1763,7 +2066,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1780,7 +2083,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1797,7 +2100,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1814,7 +2117,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1831,7 +2134,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1848,7 +2151,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1865,7 +2168,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1882,7 +2185,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1899,7 +2202,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1916,7 +2219,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1933,7 +2236,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1950,7 +2253,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1979,34 +2282,271 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.53125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>412</v>
+      </c>
+      <c r="C2" t="s">
+        <v>411</v>
+      </c>
+      <c r="D2" t="s">
+        <v>413</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>414</v>
+      </c>
+      <c r="C3" t="s">
+        <v>415</v>
+      </c>
+      <c r="D3" t="s">
+        <v>416</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>418</v>
+      </c>
+      <c r="C4" t="s">
+        <v>420</v>
+      </c>
+      <c r="D4" t="s">
+        <v>419</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>422</v>
+      </c>
+      <c r="C5" t="s">
+        <v>423</v>
+      </c>
+      <c r="D5" t="s">
+        <v>424</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>426</v>
+      </c>
+      <c r="C6" t="s">
+        <v>427</v>
+      </c>
+      <c r="D6" t="s">
+        <v>428</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>430</v>
+      </c>
+      <c r="C7" t="s">
+        <v>431</v>
+      </c>
+      <c r="D7" t="s">
+        <v>428</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>433</v>
+      </c>
+      <c r="C8" t="s">
+        <v>434</v>
+      </c>
+      <c r="D8" t="s">
+        <v>435</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>437</v>
+      </c>
+      <c r="C9" t="s">
+        <v>438</v>
+      </c>
+      <c r="D9" t="s">
+        <v>439</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>441</v>
+      </c>
+      <c r="C10" t="s">
+        <v>442</v>
+      </c>
+      <c r="D10" t="s">
+        <v>443</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>445</v>
+      </c>
+      <c r="C11" t="s">
+        <v>446</v>
+      </c>
+      <c r="D11" t="s">
+        <v>447</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>449</v>
+      </c>
+      <c r="C12" t="s">
+        <v>450</v>
+      </c>
+      <c r="D12" t="s">
+        <v>451</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>453</v>
+      </c>
+      <c r="C13" t="s">
+        <v>454</v>
+      </c>
+      <c r="D13" t="s">
+        <v>455</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>458</v>
+      </c>
+      <c r="C14" t="s">
+        <v>459</v>
+      </c>
+      <c r="D14" t="s">
+        <v>428</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>457</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="E3" r:id="rId2"/>
+    <hyperlink ref="E4" r:id="rId3"/>
+    <hyperlink ref="E5" r:id="rId4"/>
+    <hyperlink ref="E6" r:id="rId5"/>
+    <hyperlink ref="E7" r:id="rId6"/>
+    <hyperlink ref="E8" r:id="rId7"/>
+    <hyperlink ref="E9" r:id="rId8"/>
+    <hyperlink ref="E10" r:id="rId9"/>
+    <hyperlink ref="E11" r:id="rId10"/>
+    <hyperlink ref="E12" r:id="rId11"/>
+    <hyperlink ref="E13" r:id="rId12"/>
+    <hyperlink ref="E14" r:id="rId13"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2019,15 +2559,15 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="37.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.73046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.265625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="33" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
         <v>8</v>
       </c>
@@ -2041,7 +2581,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2058,7 +2598,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2075,7 +2615,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2092,7 +2632,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2109,7 +2649,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2126,7 +2666,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2143,7 +2683,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2160,7 +2700,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2177,7 +2717,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2194,7 +2734,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2211,7 +2751,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2228,7 +2768,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2245,7 +2785,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2290,15 +2830,15 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="39.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.1328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
         <v>9</v>
       </c>
@@ -2312,7 +2852,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2329,7 +2869,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2346,7 +2886,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2363,7 +2903,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2380,7 +2920,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2397,7 +2937,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2414,7 +2954,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2431,7 +2971,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2448,7 +2988,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2465,7 +3005,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2482,7 +3022,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2499,7 +3039,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2516,7 +3056,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2561,15 +3101,15 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="32.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.86328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
         <v>13</v>
       </c>
@@ -2583,7 +3123,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2600,7 +3140,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2617,7 +3157,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2634,7 +3174,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2651,7 +3191,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2668,7 +3208,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2685,7 +3225,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2702,7 +3242,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2719,7 +3259,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2736,7 +3276,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2753,7 +3293,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2770,7 +3310,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2787,7 +3327,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2826,35 +3366,273 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="64.86328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>359</v>
+      </c>
+      <c r="C2" t="s">
+        <v>360</v>
+      </c>
+      <c r="D2" t="s">
+        <v>361</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>363</v>
+      </c>
+      <c r="C3" t="s">
+        <v>364</v>
+      </c>
+      <c r="D3" t="s">
+        <v>365</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>367</v>
+      </c>
+      <c r="C4" t="s">
+        <v>368</v>
+      </c>
+      <c r="D4" t="s">
+        <v>369</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>371</v>
+      </c>
+      <c r="C5" t="s">
+        <v>215</v>
+      </c>
+      <c r="D5" t="s">
+        <v>372</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>374</v>
+      </c>
+      <c r="C6" t="s">
+        <v>375</v>
+      </c>
+      <c r="D6" t="s">
+        <v>376</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>378</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D7" t="s">
+        <v>380</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>382</v>
+      </c>
+      <c r="C8" t="s">
+        <v>383</v>
+      </c>
+      <c r="D8" t="s">
+        <v>384</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>386</v>
+      </c>
+      <c r="C9" t="s">
+        <v>387</v>
+      </c>
+      <c r="D9" t="s">
+        <v>388</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>390</v>
+      </c>
+      <c r="C10" t="s">
+        <v>391</v>
+      </c>
+      <c r="D10" t="s">
+        <v>392</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>394</v>
+      </c>
+      <c r="C11" t="s">
+        <v>395</v>
+      </c>
+      <c r="D11" t="s">
+        <v>396</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>398</v>
+      </c>
+      <c r="C12" t="s">
+        <v>399</v>
+      </c>
+      <c r="D12" t="s">
+        <v>401</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>402</v>
+      </c>
+      <c r="C13" t="s">
+        <v>403</v>
+      </c>
+      <c r="D13" t="s">
+        <v>404</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>406</v>
+      </c>
+      <c r="C14" t="s">
+        <v>407</v>
+      </c>
+      <c r="D14" t="s">
+        <v>408</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>409</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="E3" r:id="rId2"/>
+    <hyperlink ref="E4" r:id="rId3"/>
+    <hyperlink ref="E5" r:id="rId4"/>
+    <hyperlink ref="E6" r:id="rId5"/>
+    <hyperlink ref="E7" r:id="rId6"/>
+    <hyperlink ref="E8" r:id="rId7"/>
+    <hyperlink ref="E9" r:id="rId8"/>
+    <hyperlink ref="E10" r:id="rId9"/>
+    <hyperlink ref="E11" r:id="rId10"/>
+    <hyperlink ref="E12" r:id="rId11"/>
+    <hyperlink ref="E13" r:id="rId12"/>
+    <hyperlink ref="E14" r:id="rId13"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId14"/>
 </worksheet>
 </file>
 
@@ -2866,15 +3644,15 @@
       <selection activeCell="A2" sqref="A2:A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="43.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="51.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.1328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
         <v>11</v>
       </c>
@@ -2888,7 +3666,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2905,7 +3683,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2922,7 +3700,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2939,7 +3717,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2956,7 +3734,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2973,7 +3751,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2990,7 +3768,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3007,7 +3785,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3024,7 +3802,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3041,7 +3819,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3058,7 +3836,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3075,7 +3853,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3092,7 +3870,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3138,15 +3916,15 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.73046875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="45" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
         <v>12</v>
       </c>
@@ -3160,7 +3938,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3177,7 +3955,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3194,7 +3972,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3211,7 +3989,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3228,7 +4006,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3245,7 +4023,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3262,7 +4040,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3279,7 +4057,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3296,7 +4074,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3313,7 +4091,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3330,7 +4108,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3347,7 +4125,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3364,7 +4142,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>13</v>
       </c>
